--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2322577.508279283</v>
+        <v>-2327865.623774054</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791249</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14772035.07504076</v>
+        <v>14770265.1368695</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>77.73934242430651</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.86954418429059</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>68.76350334275783</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>23.83256035713673</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>21.27104444158488</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>114.7398479781407</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>160.8542999853961</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>74.62079017927741</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -981,10 +981,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>73.09177164960315</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>104.7560799423474</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>2.985676702963014</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>42.50877664811959</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>328.8647584853379</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.8653251659286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.0363847091458</v>
+        <v>112.381462902226</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>40.13905097439021</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>16.66600203378635</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>40.78297506860809</v>
+        <v>97.4247543599388</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>69.77853679029154</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>76.11243740435449</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>40.13905097439065</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599388</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>40.78297506860832</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>61.81960433981874</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.165832673021</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,7 +2378,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404353</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380454</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,19 +2767,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414332</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404344</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007176</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035417</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.0855074921939</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507301</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484028</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723241</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380445</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497638</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.6707049994323</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838877</v>
+        <v>24.17382596574994</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828889</v>
+        <v>52.06849973565006</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431722</v>
+        <v>70.57601873167839</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459962</v>
+        <v>55.7231469819608</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643935</v>
+        <v>41.29686219380052</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931846</v>
+        <v>41.22330424667963</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908573</v>
+        <v>42.9727556664469</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147786</v>
+        <v>53.79159358883904</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804991</v>
+        <v>41.14384575541108</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922184</v>
+        <v>18.98356133658301</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367775</v>
+        <v>9.882059701038926</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920507</v>
+        <v>88.00800320656624</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277472</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1042.167257230336</v>
+        <v>980.4333798454863</v>
       </c>
       <c r="C2" t="n">
-        <v>648.9917557332662</v>
+        <v>587.2578783484169</v>
       </c>
       <c r="D2" t="n">
-        <v>263.550626949934</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="E2" t="n">
-        <v>263.550626949934</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475494</v>
+        <v>74.8843274327478</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>74.8843274327478</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354862</v>
+        <v>588.4870060424364</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678798</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238214</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238214</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941733</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941733</v>
+        <v>1448.41057321981</v>
       </c>
       <c r="X2" t="n">
-        <v>1442.662002941733</v>
+        <v>1058.957968152867</v>
       </c>
       <c r="Y2" t="n">
-        <v>1442.662002941733</v>
+        <v>1058.957968152867</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.813417902142</v>
+        <v>667.0501697914128</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622342</v>
+        <v>516.395939351505</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837145</v>
+        <v>386.3069719729854</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991106</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048473</v>
+        <v>407.9705203262586</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>2027.172001424951</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1850.188189623859</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1640.125046302501</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1417.585044673568</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1187.467798806855</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267596</v>
+        <v>998.1607211568669</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431033</v>
+        <v>818.8465042323742</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475494</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475494</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475494</v>
+        <v>197.062058897136</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475494</v>
+        <v>374.1810754709696</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>759.46375459491</v>
+        <v>860.6955381950229</v>
       </c>
       <c r="C5" t="n">
-        <v>366.2882530978406</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="D5" t="n">
-        <v>366.2882530978406</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="E5" t="n">
-        <v>366.2882530978406</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>353.4342186682224</v>
+        <v>50.62559822793125</v>
       </c>
       <c r="G5" t="n">
-        <v>344.3118671966296</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253939</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253939</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354862</v>
+        <v>588.4870060424364</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572948</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523736</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958335</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661853</v>
+        <v>1733.055528520442</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661853</v>
+        <v>1657.680992985819</v>
       </c>
       <c r="X5" t="n">
-        <v>759.46375459491</v>
+        <v>1657.680992985819</v>
       </c>
       <c r="Y5" t="n">
-        <v>759.46375459491</v>
+        <v>1261.19028390642</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.813417902142</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622342</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837145</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653855</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653855</v>
+        <v>407.9705203262586</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>986.923969267596</v>
+        <v>970.7961928327738</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431033</v>
+        <v>791.481975908281</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475494</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475494</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>818.0258575153864</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>532.5870657572873</v>
+        <v>697.1960272500164</v>
       </c>
       <c r="V7" t="n">
-        <v>266.6077205781116</v>
+        <v>431.2166820708406</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6077205781116</v>
+        <v>431.2166820708406</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475494</v>
+        <v>197.1363598538237</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>1208.099909659279</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>875.9132849266141</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>473.3297600431586</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4841,13 +4841,13 @@
         <v>1601.275411156348</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="X8" t="n">
-        <v>840.8237710576924</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="Y8" t="n">
-        <v>611.6668769506938</v>
+        <v>1601.275411156348</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>316.3081503342173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.01579512446</v>
+        <v>1435.837779556536</v>
       </c>
       <c r="C11" t="n">
-        <v>813.6365687735845</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>499.9917151364461</v>
+        <v>800.8136995685217</v>
       </c>
       <c r="E11" t="n">
-        <v>169.2044653991843</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="F11" t="n">
-        <v>169.2044653991843</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543618</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2089.230684054944</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>1764.536250121739</v>
       </c>
     </row>
     <row r="12">
@@ -5124,7 +5124,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
         <v>568.1699486069232</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.3140520158409</v>
+        <v>244.364808443224</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411553</v>
+        <v>145.955965655407</v>
       </c>
       <c r="D13" t="n">
         <v>62.11912770411553</v>
@@ -5197,31 +5197,31 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138157</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593277</v>
       </c>
       <c r="S13" t="n">
         <v>1313.608118922021</v>
@@ -5230,19 +5230,19 @@
         <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>936.0428256245435</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915624</v>
+        <v>741.8597555915616</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689341</v>
+        <v>671.3763850963174</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981111</v>
+        <v>509.0923380254943</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7257955609483</v>
+        <v>357.7765519883314</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.015795124459</v>
+        <v>1434.218555009978</v>
       </c>
       <c r="C14" t="n">
-        <v>813.6365687735838</v>
+        <v>1112.839328659102</v>
       </c>
       <c r="D14" t="n">
-        <v>499.9917151364458</v>
+        <v>799.1944750219637</v>
       </c>
       <c r="E14" t="n">
-        <v>169.2044653991848</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="F14" t="n">
-        <v>169.2044653991848</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>169.2044653991848</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5315,13 +5315,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2087.611459508386</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689662</v>
+        <v>1762.917025575181</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.3140520158411</v>
+        <v>244.2905074865362</v>
       </c>
       <c r="C16" t="n">
-        <v>103.3140520158411</v>
+        <v>145.8816646987192</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3140520158411</v>
+        <v>145.8816646987192</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3140520158411</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3140520158411</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
         <v>62.11912770411553</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245445</v>
+        <v>988.1475398457731</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915626</v>
+        <v>793.9644698127911</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689341</v>
+        <v>582.4303428901626</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981111</v>
+        <v>420.1462958193395</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609485</v>
+        <v>357.7022510316436</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5595,10 +5595,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
         <v>568.1699486069232</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829235</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,16 +5917,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6072,7 +6072,7 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
         <v>568.1699486069232</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>755.8323718938493</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6254,7 +6254,7 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985354</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796871</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192022</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225752</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904125</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351195</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286453</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134134</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386531</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
         <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375468</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.34602550699</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755025</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755025</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414154</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878063</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879676</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286444</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463659</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057083</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230762</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835518</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>725.8995309769027</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1219.219822695432</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1876.872843314995</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2404.684126952457</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3192.911219976308</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076159</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076159</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076159</v>
+        <v>500.409263884299</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965119</v>
+        <v>365.6713676929724</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918658</v>
+        <v>309.3853606404867</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237452</v>
+        <v>267.6713584245266</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652543</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431899</v>
+        <v>86.73045008374211</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927170988</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805489</v>
+        <v>501.1958531658814</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188129</v>
+        <v>799.1395520791282</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770925</v>
+        <v>982.3291861103373</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1264.910118928624</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250197</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395503</v>
+        <v>835.7257283273691</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000926</v>
+        <v>666.3144371400718</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124404</v>
+        <v>546.1532258045801</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584485</v>
+        <v>436.9602755027486</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6938,16 +6938,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,19 +6956,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386234</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7251,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M39" t="n">
         <v>568.1699486069232</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222416</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960414</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343054</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
         <v>542.6718405099314</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,40 +7579,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655128</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>845.847430707221</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,22 +7804,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
         <v>1094.779966106229</v>
@@ -7979,16 +7979,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>176.7766664887417</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140933</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,13 +8064,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837486</v>
+        <v>462.5560852512514</v>
       </c>
       <c r="N3" t="n">
-        <v>526.3032062588441</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,16 +8216,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>236.1337451293777</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>339.625458929683</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8298,16 +8298,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>530.9914402615956</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>462.5560852512514</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886034</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8772,10 +8772,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9243,13 +9243,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2539578070002</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9480,13 +9480,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9495,10 +9495,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,10 +9720,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056834</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,22 +10662,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,16 +10899,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>177.2623988786017</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,16 +11373,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>647.2923877624991</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11391,10 +11391,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23270,10 +23270,10 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>297.8137645877548</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>297.8137645877555</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>56.64177929133064</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681704</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456102</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.6402488631107</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>251.3669398355345</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>209.6248565600516</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G16" t="n">
-        <v>54.71022589820866</v>
+        <v>95.49320096681704</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456102</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>87.98302383697245</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1294934.351348281</v>
+        <v>1294032.029927641</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1294934.351348281</v>
+        <v>1294032.029927641</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1154226.042947274</v>
+        <v>1154226.042947273</v>
       </c>
     </row>
     <row r="6">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668203</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728559</v>
+        <v>62456.24177539677</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.69404277113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746774</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002077</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002077</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448704.4573509644</v>
+        <v>-444653.78534355</v>
       </c>
       <c r="C6" t="n">
-        <v>-266499.5090591087</v>
+        <v>-270795.1283094947</v>
       </c>
       <c r="D6" t="n">
-        <v>-273091.5703988311</v>
+        <v>-280827.8596222224</v>
       </c>
       <c r="E6" t="n">
-        <v>-278105.9556740929</v>
+        <v>-278315.6872207823</v>
       </c>
       <c r="F6" t="n">
-        <v>-165983.3942000483</v>
+        <v>-166193.1257467378</v>
       </c>
       <c r="G6" t="n">
-        <v>-266151.3858439916</v>
+        <v>-266151.3858439917</v>
       </c>
       <c r="H6" t="n">
-        <v>-218726.0603073096</v>
+        <v>-218726.0603073097</v>
       </c>
       <c r="I6" t="n">
         <v>-218726.0603073097</v>
       </c>
       <c r="J6" t="n">
-        <v>-431767.977904595</v>
+        <v>-425251.692750022</v>
       </c>
       <c r="K6" t="n">
-        <v>-224965.8287100927</v>
+        <v>-224965.8287100926</v>
       </c>
       <c r="L6" t="n">
-        <v>-280148.4176447138</v>
+        <v>-284197.254855186</v>
       </c>
       <c r="M6" t="n">
-        <v>-260926.8897669326</v>
+        <v>-261978.5847781209</v>
       </c>
       <c r="N6" t="n">
+        <v>-218726.0603073096</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-246493.7543500808</v>
+      </c>
+      <c r="P6" t="n">
         <v>-218726.0603073097</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-246493.7543500809</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-218726.0603073096</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26814,13 +26814,13 @@
         <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293141</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660699</v>
+        <v>78.07030221924596</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155133</v>
+        <v>17.58004954287451</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407333</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>318.7504558299764</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>340.8559499010314</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,22 +27427,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31852263746332</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>109.7488099719931</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>162.0848940628034</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>116.999671016706</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>159.9879199437781</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>292.668254502118</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,10 +27701,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>61.990254330618</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>82.65792693114102</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.3761846104852</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>240.0756271923985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>52.72195901016107</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.6604768226763</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.3195537952425</v>
+        <v>70.97447560216227</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28026,7 +28026,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28989,19 +28989,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.636002634528552</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29098,7 +29098,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431641</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431749</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.9912744743165</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599481</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.9912744743165</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="O29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.9912744743165</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>43.4950968316009</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566225</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455031496</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045018</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30168,10 +30168,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155852</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30651,40 +30651,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634527671</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,10 +30891,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>33.71826330950437</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163661</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344367</v>
+        <v>370.1689632019395</v>
       </c>
       <c r="N3" t="n">
-        <v>440.9310934046774</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>93.07534195014031</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>189.9004073319557</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>440.9310934046774</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>370.1689632019395</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>188.193610950082</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133855</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36215,10 +36215,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,19 +36285,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873205</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36440,10 +36440,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437664</v>
       </c>
       <c r="P25" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>449.2589679877754</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809041</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698313</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215842</v>
+        <v>63.91678700215727</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070863</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009064</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853757</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215743</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
@@ -37002,13 +37002,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446898</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318507</v>
+        <v>406.1035372633805</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238013</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738832896</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563715</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.4555122371249</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624702</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453571</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133946</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094865</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>554.9052657131872</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38111,10 +38111,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,10 +38187,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
